--- a/data/case1/14/Q2_6.xlsx
+++ b/data/case1/14/Q2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.092247458539716831</v>
+        <v>0.098162608357640124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999425563999</v>
+        <v>-0.0059999999675817151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999551856291</v>
+        <v>-0.0039999999747166726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999159507951</v>
+        <v>-0.0079999999525917076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.002999999962412403</v>
+        <v>-0.0029999999785204068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999698221416</v>
+        <v>-0.0019999999824520387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998939988011</v>
+        <v>-0.0099999999400206541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998952400304</v>
+        <v>-0.0099999999410451679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999746875829</v>
+        <v>-0.0019999999860438322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999787430056</v>
+        <v>-0.001999999988795409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.032885162997937201</v>
+        <v>0.040126609686510051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999964150291</v>
+        <v>-0.0034999999808884574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999632026046</v>
+        <v>-0.0034999999800104931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999205622174</v>
+        <v>-0.0079999999559561275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998751876262</v>
+        <v>-0.0009999999933887338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999789166445</v>
+        <v>-0.0019999999884316999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.013153970005596705</v>
+        <v>0.011588820192413252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999623914206</v>
+        <v>-0.003999999978631763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999611226578</v>
+        <v>-0.003999999978103741</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999573865352</v>
+        <v>-0.0039999999763598026</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999568651745</v>
+        <v>-0.0039999999760960137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999567452704</v>
+        <v>-0.003999999975943247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999426235675</v>
+        <v>-0.0049999999676400009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999793518519</v>
+        <v>-0.0199999998845799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999979063638</v>
+        <v>-0.019999999882991837</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.045778035918484505</v>
+        <v>0.033233986034707286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999631170056</v>
+        <v>-0.0024999999787942428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999578681482</v>
+        <v>-0.0019999999765936138</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999037699823</v>
+        <v>-0.0069999999465863993</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.017240845332114674</v>
+        <v>-0.016255773729203948</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998969532129</v>
+        <v>-0.0069999999429466442</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998679027868</v>
+        <v>-0.0099999999266451312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999248525597</v>
+        <v>-0.0039999999584807711</v>
       </c>
     </row>
   </sheetData>
